--- a/Results/Opinion/beda-SERVICE.xlsx
+++ b/Results/Opinion/beda-SERVICE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -31,24 +31,9 @@
     <t>2nd</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>boarderline</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>concerned</t>
-  </si>
-  <si>
     <t>counter</t>
   </si>
   <si>
@@ -58,9 +43,6 @@
     <t>empty</t>
   </si>
   <si>
-    <t>exceptional</t>
-  </si>
-  <si>
     <t>extensive</t>
   </si>
   <si>
@@ -73,9 +55,6 @@
     <t>friendliest</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
     <t>japanese</t>
   </si>
   <si>
@@ -91,9 +70,6 @@
     <t>noir</t>
   </si>
   <si>
-    <t>noisy</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
@@ -103,12 +79,12 @@
     <t>only</t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>perfecttheyre</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>prepared</t>
   </si>
   <si>
@@ -124,15 +100,9 @@
     <t>quick</t>
   </si>
   <si>
-    <t>same</t>
-  </si>
-  <si>
     <t>sensual</t>
   </si>
   <si>
-    <t>several</t>
-  </si>
-  <si>
     <t>short</t>
   </si>
   <si>
@@ -148,9 +118,6 @@
     <t>unobtrusive</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -158,9 +125,6 @@
   </si>
   <si>
     <t>baru</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -518,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,10 +513,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,16 +524,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,16 +541,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,16 +558,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,16 +575,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,16 +592,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -645,16 +609,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,16 +626,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -679,16 +643,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -696,16 +660,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -713,16 +677,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -730,16 +694,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -747,16 +711,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -764,16 +728,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -781,16 +745,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -798,16 +762,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -815,16 +779,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -832,16 +796,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -849,16 +813,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -866,16 +830,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -883,16 +847,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -900,16 +864,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -917,16 +881,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -934,16 +898,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -951,16 +915,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -968,16 +932,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -985,16 +949,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1002,16 +966,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1019,16 +983,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1036,203 +1000,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>49</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>50</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>52</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>53</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>54</v>
-      </c>
-      <c r="C36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>55</v>
-      </c>
-      <c r="C37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>57</v>
-      </c>
-      <c r="C38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>58</v>
-      </c>
-      <c r="C39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>61</v>
-      </c>
-      <c r="C40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>62</v>
-      </c>
-      <c r="C41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>65</v>
-      </c>
-      <c r="C42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Opinion/beda-SERVICE.xlsx
+++ b/Results/Opinion/beda-SERVICE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -31,9 +31,24 @@
     <t>2nd</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>boarderline</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>concerned</t>
+  </si>
+  <si>
     <t>counter</t>
   </si>
   <si>
@@ -43,18 +58,24 @@
     <t>empty</t>
   </si>
   <si>
+    <t>exceptional</t>
+  </si>
+  <si>
     <t>extensive</t>
   </si>
   <si>
-    <t>few</t>
-  </si>
-  <si>
     <t>friendlier</t>
   </si>
   <si>
     <t>friendliest</t>
   </si>
   <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>ive</t>
+  </si>
+  <si>
     <t>japanese</t>
   </si>
   <si>
@@ -70,6 +91,9 @@
     <t>noir</t>
   </si>
   <si>
+    <t>noisy</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
@@ -85,6 +109,9 @@
     <t>perfecttheyre</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>prepared</t>
   </si>
   <si>
@@ -118,6 +145,9 @@
     <t>unobtrusive</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -125,6 +155,9 @@
   </si>
   <si>
     <t>baru</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -482,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +546,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -524,16 +557,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,16 +574,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -558,16 +591,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -575,16 +608,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -592,16 +625,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -609,16 +642,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -626,16 +659,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -643,16 +676,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -660,16 +693,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -677,16 +710,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -694,16 +727,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -711,16 +744,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -728,16 +761,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -745,16 +778,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -762,16 +795,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -779,16 +812,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -796,16 +829,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -813,16 +846,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -830,16 +863,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -847,16 +880,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -864,16 +897,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -881,16 +914,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -898,16 +931,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -915,16 +948,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -932,16 +965,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -949,16 +982,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -966,16 +999,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -983,16 +1016,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1000,16 +1033,186 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
       <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
         <v>35</v>
       </c>
-      <c r="E31" t="s">
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
         <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>60</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
